--- a/xlsx/西班牙_intext.xlsx
+++ b/xlsx/西班牙_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1156">
   <si>
     <t>西班牙</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_西班牙</t>
+    <t>政策_政策_美国_西班牙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%BF%9B%E8%A1%8C%E6%9B%B2</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
   </si>
   <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B4%A1%E8%AF%AD</t>
   </si>
   <si>
@@ -95,7 +92,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF-%E8%90%8A%E6%98%82%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>阿斯圖里亞斯-萊昂語支</t>
+    <t>阿斯图里亚斯-莱昂语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AF%AD</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E8%AB%BE%C2%B7%E6%8B%89%E8%8D%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬里亞諾·拉荷義</t>
+    <t>马里亚诺·拉荷义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>西班牙議會</t>
+    <t>西班牙议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%B8%AD%E9%83%A8%E5%A4%8F%E4%BB%A4%E6%97%B6%E9%97%B4</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -521,19 +518,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>史前時代</t>
+    <t>史前时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%8F%B2</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>母語</t>
+    <t>母语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
@@ -569,27 +563,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>西班牙歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E9%81%94_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>梅里達 (西班牙)</t>
+    <t>梅里达 (西班牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>西班牙帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
   </si>
   <si>
@@ -605,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>石器時代</t>
+    <t>石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E8%80%85</t>
@@ -635,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%A4%AA%E5%9F%BA%E4%BA%BA</t>
@@ -695,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%A4%B1%E5%9C%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復失地運動</t>
+    <t>收复失地运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E7%BA%B3%E8%BE%BE</t>
@@ -923,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>巴斯克民族解放運動</t>
+    <t>巴斯克民族解放运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF</t>
@@ -959,9 +944,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E5%BC%80%E6%B9%BE</t>
   </si>
   <si>
@@ -977,13 +959,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶地中海型氣候</t>
+    <t>温带地中海型气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3</t>
@@ -1001,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬拉加</t>
+    <t>马拉加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%80%AB%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>華倫西亞</t>
+    <t>华伦西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%A9%E5%9D%8E%E7%89%B9</t>
@@ -1019,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%95%A5%E5%8D%A1</t>
   </si>
   <si>
-    <t>馬略卡</t>
+    <t>马略卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%B0%94%E8%A5%BF%E4%BA%9A</t>
@@ -1055,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%A1%9E%E7%89%B9</t>
   </si>
   <si>
-    <t>阿爾巴塞特</t>
+    <t>阿尔巴塞特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%88%88%E8%96%A9</t>
   </si>
   <si>
-    <t>薩拉戈薩</t>
+    <t>萨拉戈萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E6%88%88%E6%96%AF</t>
@@ -1097,13 +1076,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E7%88%BE%E5%8C%85</t>
   </si>
   <si>
-    <t>畢爾包</t>
+    <t>毕尔包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%A7%91%E9%AD%AF%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉科魯尼亞</t>
+    <t>拉科鲁尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B4%AA</t>
@@ -1115,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%B4%8D%E5%88%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>加納利群島</t>
+    <t>加纳利群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%86%85%E9%87%8C%E8%B4%B9</t>
@@ -1127,25 +1106,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
   </si>
   <si>
-    <t>直布羅陀</t>
+    <t>直布罗陀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8E%8B%E4%BD%8D%E7%B9%BC%E6%89%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>西班牙王位繼承戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%BE%97%E5%8B%92%E6%94%AF%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>烏得勒支和約</t>
+    <t>乌得勒支和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%8A%95</t>
@@ -1157,13 +1130,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9D%9E%E8%87%AA%E6%B2%BB%E9%A0%98%E5%9C%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國非自治領土列表</t>
+    <t>联合国非自治领土列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -1175,9 +1148,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%81%94</t>
   </si>
   <si>
-    <t>休達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E6%A2%85%E6%8B%89%E5%B2%9B_(%E8%A5%BF%E5%B1%9E%E5%8C%97%E9%9D%9E%E9%A2%86%E5%9C%B0)</t>
   </si>
   <si>
@@ -1199,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>雷拉島</t>
+    <t>雷拉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99</t>
@@ -1217,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>西奈半島</t>
+    <t>西奈半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1241,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維也納會議</t>
+    <t>维也纳会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E9%97%A8</t>
@@ -1253,19 +1223,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>加泰隆尼亞獨立運動</t>
+    <t>加泰隆尼亚独立运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E9%9A%86%E7%B4%8D</t>
   </si>
   <si>
-    <t>巴塞隆納</t>
+    <t>巴塞隆纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%BB%8F%E6%B5%8E</t>
@@ -1277,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/PS10%E5%A4%AA%E9%99%BD%E8%83%BD%E7%99%BC%E9%9B%BB%E5%A1%94</t>
   </si>
   <si>
-    <t>PS10太陽能發電塔</t>
+    <t>PS10太阳能发电塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>工業化國家</t>
+    <t>工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -1337,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E7%B4%A1</t>
   </si>
   <si>
-    <t>印地紡</t>
+    <t>印地纺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%B4%9D%E6%8B%89</t>
@@ -1361,15 +1331,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>免費教育</t>
+    <t>免费教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%A1%9E%E5%A1%94</t>
   </si>
   <si>
@@ -1379,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%B5%AB%E8%A5%BF%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>阿爾赫西拉斯</t>
+    <t>阿尔赫西拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%93%88%E6%96%AF%E6%9C%BA%E5%9C%BA</t>
@@ -1391,13 +1358,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BE%85%E9%82%A3</t>
   </si>
   <si>
-    <t>巴塞羅那</t>
+    <t>巴塞罗那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%95%A5%E5%8D%A1%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬略卡島</t>
+    <t>马略卡岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B0%94%E9%A9%AC%E6%9C%BA%E5%9C%BA</t>
@@ -1409,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>馬德里機場</t>
+    <t>马德里机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BD%E8%BD%A8</t>
@@ -1421,13 +1388,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B6%AD%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞維利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>高速鐵路</t>
+    <t>高速铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -1451,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙軍隊</t>
+    <t>西班牙军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9A_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
@@ -1487,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%80%AB%E8%A5%BF%E4%BA%9E%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>瓦倫西亞自治區</t>
+    <t>瓦伦西亚自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9A-%E6%8B%89%E6%9B%BC%E6%81%B0</t>
@@ -1523,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>巴斯克自治區</t>
+    <t>巴斯克自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BE%BE%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1535,51 +1499,30 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>西班牙行政區劃</t>
+    <t>西班牙行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%94%E7%9B%A7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>安達盧西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B2%A2%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>阿拉貢自治區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>阿斯圖里亞斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴利阿里群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>加那利群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%A1%94%E5%B8%83%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>坎塔布里亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9E-%E6%8B%89%E6%9B%BC%E6%81%B0</t>
   </si>
   <si>
-    <t>卡斯蒂利亞-拉曼恰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
   </si>
   <si>
@@ -1589,27 +1532,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9E%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>加利西亞自治區</t>
+    <t>加利西亚自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>馬德里自治區</t>
+    <t>马德里自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%88%BE%E8%A5%BF%E4%BA%9E%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>穆爾西亞自治區</t>
+    <t>穆尔西亚自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E6%8B%89</t>
   </si>
   <si>
-    <t>納瓦拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%E5%A5%A5%E5%93%88</t>
   </si>
   <si>
@@ -1619,13 +1559,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%81%94%E8%87%AA%E6%B2%BB%E5%B8%82</t>
   </si>
   <si>
-    <t>休達自治市</t>
+    <t>休达自治市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9E%E8%87%AA%E6%B2%BB%E5%B8%82</t>
   </si>
   <si>
-    <t>梅利利亞自治市</t>
+    <t>梅利利亚自治市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E8%A8%80</t>
@@ -1637,15 +1577,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%B6%E5%A0%82</t>
   </si>
   <si>
-    <t>聖家堂</t>
+    <t>圣家堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
   </si>
   <si>
-    <t>拉丁语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
@@ -1673,25 +1610,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>自治區</t>
+    <t>自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%80%AB%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>瓦倫西亞</t>
+    <t>瓦伦西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E5%A4%9A%E7%93%A6_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>科爾多瓦 (西班牙)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞維亞</t>
+    <t>塞维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%8B%89%E5%A4%9A%E5%88%A9%E5%BE%B7</t>
@@ -1703,19 +1637,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E6%8F%90%E4%BA%9E-%E9%9B%B7%E6%98%82</t>
   </si>
   <si>
-    <t>卡斯提亞-雷昂</t>
+    <t>卡斯提亚-雷昂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%94%E9%AD%AF%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>安達魯西亞</t>
+    <t>安达鲁西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%88%88</t>
   </si>
   <si>
-    <t>維戈</t>
+    <t>维戈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E9%9F%A6%E6%8B%89%E5%BE%B7%E7%95%A5%E5%A4%AB%E9%9B%B7%E5%8A%A0%E7%89%B9</t>
@@ -1727,49 +1661,46 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>加泰隆尼亞</t>
+    <t>加泰隆尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%95%E4%BA%9E</t>
   </si>
   <si>
-    <t>莫夕亞</t>
+    <t>莫夕亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%88%BE%E9%A6%AC_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>帕爾馬 (西班牙)</t>
+    <t>帕尔马 (西班牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E4%BA%9E%E5%88%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴利亞利群島</t>
+    <t>巴利亚利群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>維多利亞 (西班牙)</t>
+    <t>维多利亚 (西班牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E5%B8%95%E7%88%BE%E9%A6%AC%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯帕爾馬斯</t>
+    <t>拉斯帕尔马斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>格拉納達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E5%88%87</t>
   </si>
   <si>
-    <t>埃爾切</t>
+    <t>埃尔切</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87%E5%8C%96</t>
@@ -1793,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%89%B9</t>
   </si>
   <si>
-    <t>塞爾特</t>
+    <t>塞尔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%99%E7%90%86</t>
@@ -1805,13 +1736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%A5%E7%89%9B</t>
   </si>
   <si>
-    <t>鬥牛</t>
+    <t>斗牛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1835,19 +1766,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>西班牙體育</t>
+    <t>西班牙体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%90%E7%88%BE%C2%B7%E6%8B%BF%E5%BA%A6</t>
   </si>
   <si>
-    <t>拉斐爾·拿度</t>
+    <t>拉斐尔·拿度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙國家足球隊</t>
+    <t>西班牙国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E4%B8%96%E7%95%8C%E6%9D%AF</t>
@@ -1859,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%B6%B3%E7%90%83%E7%94%B2%E7%B4%9A%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>西班牙足球甲級聯賽</t>
+    <t>西班牙足球甲级联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%B6%B3%E7%90%83%E4%B9%99%E7%BA%A7%E8%81%94%E8%B5%9B</t>
@@ -1871,43 +1802,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9C%8B%E7%8E%8B%E7%9B%83</t>
   </si>
   <si>
-    <t>西班牙國王盃</t>
+    <t>西班牙国王杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%B6%85%E7%B4%9A%E7%9B%83</t>
   </si>
   <si>
-    <t>西班牙超級盃</t>
+    <t>西班牙超级杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>網球</t>
+    <t>网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%B2%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>法國網球公開賽</t>
+    <t>法国网球公开赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%98%AD%E6%9F%A5%C2%B7%E6%A1%91%E5%88%87%E6%96%AF%C2%B7%E7%B6%AD%E5%8D%A1%E9%87%8C%E5%A5%A7</t>
   </si>
   <si>
-    <t>阿蘭查·桑切斯·維卡里奧</t>
+    <t>阿兰查·桑切斯·维卡里奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%87%E5%A1%94%C2%B7%E9%A6%AC%E4%B8%81%E5%85%A7%E6%96%AF</t>
   </si>
   <si>
-    <t>康奇塔·馬丁內斯</t>
+    <t>康奇塔·马丁内斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E5%B8%8C%C2%B7%E5%B8%83%E9%AD%AF%E6%A0%BC%E6%8B%89</t>
   </si>
   <si>
-    <t>塞爾希·布魯格拉</t>
+    <t>塞尔希·布鲁格拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E8%8E%AB%E4%BA%9A</t>
@@ -1931,13 +1862,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%90%E7%88%BE%C2%B7%E7%B4%8D%E9%81%94%E7%88%BE</t>
   </si>
   <si>
-    <t>拉斐爾·納達爾</t>
+    <t>拉斐尔·纳达尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%A2%A7%E5%A6%AE%C2%B7%E7%A9%86%E5%8F%A4%E9%AD%AF%E6%89%8E</t>
   </si>
   <si>
-    <t>加碧妮·穆古魯扎</t>
+    <t>加碧妮·穆古鲁扎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
@@ -1949,19 +1880,19 @@
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E4%B8%96%E7%95%8C%E7%B1%83%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2006年世界籃球錦標賽</t>
+    <t>2006年世界篮球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2008年夏季奧林匹克運動會</t>
+    <t>2008年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2012年夏季奧林匹克運動會</t>
+    <t>2012年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E9%87%8C%E7%BA%A6%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
@@ -1973,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E9%98%BF%E9%9A%86%E7%B4%A2</t>
@@ -1991,27 +1922,24 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%A9%E6%89%98%E8%BB%8A%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界摩托車錦標賽</t>
+    <t>世界摩托车锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E9%A6%AC%E7%88%BE%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>馬克·馬爾克斯</t>
+    <t>马克·马尔克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴倫西亞</t>
+    <t>巴伦西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BD%97%E9%82%A3</t>
   </si>
   <si>
-    <t>巴塞罗那</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BD%E6%B1%A0%E5%85%AC%E5%9B%AD</t>
   </si>
   <si>
@@ -2027,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%BB%A3%E5%A0%B4_(%E9%A6%AC%E5%BE%B7%E9%87%8C)</t>
   </si>
   <si>
-    <t>主廣場 (馬德里)</t>
+    <t>主广场 (马德里)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A%E8%AE%AE%E4%BC%9A%E5%A4%A7%E9%81%93</t>
@@ -2039,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E5%A4%9A%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>普拉多美術館</t>
+    <t>普拉多美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E5%A8%85%E7%8E%8B%E5%90%8E%E5%9B%BD%E5%AE%B6%E8%89%BA%E6%9C%AF%E4%B8%AD%E5%BF%83%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -2063,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E9%9A%86%E7%B4%8D%E6%A1%91%E6%96%AF%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>巴塞隆納桑斯車站</t>
+    <t>巴塞隆纳桑斯车站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E7%89%B9%E5%8C%BA</t>
@@ -2087,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E5%8A%A0%E7%B4%A2%E5%8D%9A%E7%89%A9%E9%A4%A8_(%E5%B7%B4%E5%A1%9E%E7%BE%85%E9%82%A3)</t>
   </si>
   <si>
-    <t>畢加索博物館 (巴塞羅那)</t>
+    <t>毕加索博物馆 (巴塞罗那)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%94</t>
@@ -2105,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%80%9F</t>
   </si>
   <si>
-    <t>時速</t>
+    <t>时速</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A7%E9%81%93</t>
@@ -2123,21 +2051,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8D%94%E5%A7%94%E5%93%A1</t>
   </si>
   <si>
-    <t>政協委員</t>
+    <t>政协委员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%8D%80%E5%9F%9F%E6%88%96%E5%B0%91%E6%95%B8%E6%B0%91%E6%97%8F%E8%AA%9E%E8%A8%80%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>歐洲區域或少數民族語言憲章</t>
+    <t>欧洲区域或少数民族语言宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B2%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉貢語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9B%BE%E9%87%8C%E4%BA%9A%E6%96%AF%E8%AF%AD</t>
   </si>
   <si>
@@ -2147,15 +2072,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>巴斯克語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>奧克語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.eu</t>
   </si>
   <si>
@@ -2171,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>加泰羅尼亞語地區</t>
+    <t>加泰罗尼亚语地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -2189,7 +2108,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OpenStreetMap</t>
@@ -2201,9 +2120,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>比斯開灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
   </si>
   <si>
@@ -2219,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>直布羅陀海峽</t>
+    <t>直布罗陀海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -2351,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -2375,7 +2291,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2405,13 +2321,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2423,7 +2339,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -2435,13 +2351,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2459,13 +2372,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
@@ -2477,25 +2390,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -2507,15 +2420,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
   </si>
   <si>
@@ -2525,19 +2435,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -2555,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
@@ -2591,7 +2501,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -2615,7 +2525,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
@@ -2717,19 +2627,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -2765,9 +2675,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
   </si>
   <si>
-    <t>西奈半岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
@@ -2783,13 +2690,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
@@ -2807,49 +2714,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -2891,7 +2780,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
@@ -2921,7 +2810,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
@@ -2945,7 +2834,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>加拿大軍隊</t>
+    <t>加拿大军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
@@ -2993,9 +2882,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%86%9B%E9%98%9F</t>
   </si>
   <si>
-    <t>西班牙军队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B</t>
   </si>
   <si>
@@ -3029,7 +2915,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
@@ -3059,9 +2945,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
@@ -3143,7 +3026,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -3161,7 +3044,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -3173,7 +3056,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
+    <t>乌拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -3215,7 +3098,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
@@ -3239,31 +3122,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -3299,7 +3179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>盧森堡市</t>
+    <t>卢森堡市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
@@ -3323,7 +3203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
   </si>
   <si>
-    <t>瓦都茲</t>
+    <t>瓦都兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -3353,7 +3233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC</t>
@@ -3389,13 +3269,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
   </si>
   <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
   </si>
   <si>
-    <t>聖馬力諾 (城市)</t>
+    <t>圣马力诺 (城市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%8E%B1%E5%A1%94</t>
@@ -3491,7 +3368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>索菲亞</t>
+    <t>索菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
@@ -3503,7 +3380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>普里什蒂納</t>
+    <t>普里什蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -3551,7 +3428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3569,7 +3446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3581,7 +3458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3593,13 +3470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4266,7 +4143,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>13</v>
@@ -4292,10 +4169,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -4321,10 +4198,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -4350,10 +4227,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -4379,10 +4256,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -4408,10 +4285,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -4437,10 +4314,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -4466,10 +4343,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -4495,10 +4372,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -4524,10 +4401,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
@@ -4553,10 +4430,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -4582,10 +4459,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -4611,10 +4488,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -4640,10 +4517,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>14</v>
@@ -4669,10 +4546,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -4698,10 +4575,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -4727,10 +4604,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -4756,10 +4633,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4785,10 +4662,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -4814,10 +4691,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -4843,10 +4720,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -4872,10 +4749,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -4901,10 +4778,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
@@ -4930,10 +4807,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -4959,10 +4836,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4988,10 +4865,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -5017,10 +4894,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -5046,10 +4923,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -5075,10 +4952,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -5104,10 +4981,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -5133,10 +5010,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -5162,10 +5039,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -5191,10 +5068,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>17</v>
@@ -5220,10 +5097,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -5249,10 +5126,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -5278,10 +5155,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -5307,10 +5184,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -5336,10 +5213,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -5365,10 +5242,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -5394,10 +5271,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -5423,10 +5300,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -5452,10 +5329,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -5481,10 +5358,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5510,10 +5387,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -5539,10 +5416,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5568,10 +5445,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -5597,10 +5474,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5626,10 +5503,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -5655,10 +5532,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -5684,10 +5561,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -5713,10 +5590,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5742,10 +5619,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -5771,10 +5648,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -5800,10 +5677,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -5829,10 +5706,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5858,10 +5735,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5887,10 +5764,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>7</v>
@@ -5916,10 +5793,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5945,10 +5822,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5974,10 +5851,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -6003,10 +5880,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -6032,10 +5909,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
         <v>45</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -6061,10 +5938,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>19</v>
@@ -6090,10 +5967,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>13</v>
@@ -6119,10 +5996,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -6148,10 +6025,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>14</v>
@@ -6177,10 +6054,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
@@ -6206,10 +6083,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -6235,10 +6112,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>18</v>
@@ -6264,10 +6141,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -6293,10 +6170,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>10</v>
@@ -6322,10 +6199,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -6351,10 +6228,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -6380,10 +6257,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -6409,10 +6286,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
         <v>19</v>
@@ -6438,10 +6315,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6467,10 +6344,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6496,10 +6373,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6525,10 +6402,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -6554,10 +6431,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>17</v>
@@ -6583,10 +6460,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -6612,10 +6489,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>15</v>
@@ -6641,10 +6518,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6670,10 +6547,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6699,10 +6576,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" t="s">
         <v>65</v>
-      </c>
-      <c r="F95" t="s">
-        <v>66</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6728,10 +6605,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6757,10 +6634,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6786,10 +6663,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -6815,10 +6692,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6844,10 +6721,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6873,10 +6750,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6902,10 +6779,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6931,10 +6808,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6960,10 +6837,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6989,10 +6866,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7018,10 +6895,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7047,10 +6924,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -7076,10 +6953,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -7105,10 +6982,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7134,10 +7011,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7163,10 +7040,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7192,10 +7069,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7221,10 +7098,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7250,10 +7127,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -7279,10 +7156,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -7308,10 +7185,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -7337,10 +7214,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -7366,10 +7243,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7395,10 +7272,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7424,10 +7301,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7453,10 +7330,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
@@ -7482,10 +7359,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>8</v>
@@ -7511,10 +7388,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7540,10 +7417,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7569,10 +7446,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7598,10 +7475,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>6</v>
@@ -7627,10 +7504,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7656,10 +7533,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7685,10 +7562,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7714,10 +7591,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -7743,10 +7620,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7772,10 +7649,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>5</v>
@@ -7801,10 +7678,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -7830,10 +7707,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7859,10 +7736,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7888,10 +7765,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7917,10 +7794,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7946,10 +7823,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>5</v>
@@ -7975,10 +7852,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8004,10 +7881,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8033,10 +7910,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8062,10 +7939,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -8091,10 +7968,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8120,10 +7997,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8149,10 +8026,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8178,10 +8055,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8207,10 +8084,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -8236,10 +8113,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8265,10 +8142,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -8294,10 +8171,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8323,10 +8200,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8352,10 +8229,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8381,10 +8258,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8410,10 +8287,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8439,10 +8316,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -8468,10 +8345,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8497,10 +8374,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>80</v>
+      </c>
+      <c r="F157" t="s">
         <v>81</v>
-      </c>
-      <c r="F157" t="s">
-        <v>82</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8526,10 +8403,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>146</v>
+      </c>
+      <c r="F158" t="s">
         <v>147</v>
-      </c>
-      <c r="F158" t="s">
-        <v>148</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8555,10 +8432,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8584,10 +8461,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8613,10 +8490,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8642,10 +8519,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -8671,10 +8548,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8700,10 +8577,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -8729,10 +8606,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>8</v>
@@ -8758,10 +8635,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8787,10 +8664,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>5</v>
@@ -8816,10 +8693,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8845,10 +8722,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -8874,10 +8751,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8903,10 +8780,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -8932,10 +8809,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -8961,10 +8838,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8990,10 +8867,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9019,10 +8896,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -9048,10 +8925,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9077,10 +8954,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9106,10 +8983,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -9135,10 +9012,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -9164,10 +9041,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -9193,10 +9070,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9222,10 +9099,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -9251,10 +9128,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9280,10 +9157,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9309,10 +9186,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -9338,10 +9215,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -9367,10 +9244,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -9396,10 +9273,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9425,10 +9302,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -9454,10 +9331,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>253</v>
       </c>
       <c r="G190" t="n">
         <v>12</v>
@@ -9483,10 +9360,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>9</v>
@@ -9512,10 +9389,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9541,10 +9418,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9570,10 +9447,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>6</v>
@@ -9599,10 +9476,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -9628,10 +9505,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9657,10 +9534,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G197" t="n">
         <v>8</v>
@@ -9686,10 +9563,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>163</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9715,10 +9592,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9744,10 +9621,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9773,10 +9650,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9802,10 +9679,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9831,10 +9708,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9860,10 +9737,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -9889,10 +9766,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9918,10 +9795,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>8</v>
@@ -9947,10 +9824,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9976,10 +9853,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10005,10 +9882,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -10034,10 +9911,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -10063,10 +9940,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -10092,10 +9969,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>5</v>
@@ -10121,10 +9998,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -10150,10 +10027,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10179,10 +10056,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10208,10 +10085,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10237,10 +10114,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>6</v>
@@ -10266,10 +10143,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -10295,10 +10172,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -10324,10 +10201,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10353,10 +10230,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -10382,10 +10259,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10411,10 +10288,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10440,10 +10317,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -10469,10 +10346,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10498,10 +10375,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10527,10 +10404,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>5</v>
@@ -10556,10 +10433,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10585,10 +10462,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10614,10 +10491,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>111</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -10643,10 +10520,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>5</v>
@@ -10672,10 +10549,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -10701,10 +10578,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10730,10 +10607,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -10759,10 +10636,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10788,10 +10665,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10817,10 +10694,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10846,10 +10723,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10875,10 +10752,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>333</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10904,10 +10781,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10933,10 +10810,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10962,10 +10839,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10991,10 +10868,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243" t="s">
         <v>39</v>
-      </c>
-      <c r="F243" t="s">
-        <v>40</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11020,10 +10897,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11049,10 +10926,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>54</v>
+      </c>
+      <c r="F245" t="s">
         <v>55</v>
-      </c>
-      <c r="F245" t="s">
-        <v>56</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -11078,10 +10955,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -11107,10 +10984,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11136,10 +11013,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>7</v>
@@ -11165,10 +11042,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11194,10 +11071,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11223,10 +11100,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>5</v>
@@ -11252,10 +11129,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G252" t="n">
         <v>12</v>
@@ -11281,10 +11158,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11310,13 +11187,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -11339,10 +11216,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11368,13 +11245,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -11397,10 +11274,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G257" t="n">
         <v>6</v>
@@ -11426,10 +11303,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11455,10 +11332,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G259" t="n">
         <v>14</v>
@@ -11484,10 +11361,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11513,10 +11390,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11542,10 +11419,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="G262" t="n">
         <v>3</v>
@@ -11571,10 +11448,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11600,10 +11477,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -11629,10 +11506,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>157</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11658,10 +11535,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11687,10 +11564,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>127</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11716,10 +11593,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11745,10 +11622,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11774,10 +11651,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F270" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11803,10 +11680,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11832,10 +11709,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F272" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11861,10 +11738,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11890,10 +11767,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11919,10 +11796,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11948,10 +11825,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11977,10 +11854,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12006,10 +11883,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F278" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12035,10 +11912,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12064,10 +11941,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12093,10 +11970,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -12122,10 +11999,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12151,10 +12028,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>10</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12180,10 +12057,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12209,10 +12086,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -12238,10 +12115,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12267,10 +12144,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12296,10 +12173,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="G288" t="n">
         <v>12</v>
@@ -12325,10 +12202,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="G289" t="n">
         <v>9</v>
@@ -12354,10 +12231,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>335</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -12383,10 +12260,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12412,10 +12289,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12441,10 +12318,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12470,10 +12347,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -12499,10 +12376,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12528,10 +12405,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F296" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -12557,10 +12434,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F297" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="G297" t="n">
         <v>12</v>
@@ -12586,10 +12463,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12615,10 +12492,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="G299" t="n">
         <v>12</v>
@@ -12644,10 +12521,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -12673,10 +12550,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -12702,10 +12579,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12731,10 +12608,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12760,10 +12637,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12789,10 +12666,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>223</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12818,10 +12695,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12847,10 +12724,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="F307" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12876,10 +12753,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="F308" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12905,10 +12782,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="F309" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12934,10 +12811,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="F310" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12963,10 +12840,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12992,10 +12869,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13021,10 +12898,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13050,10 +12927,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13079,10 +12956,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13108,10 +12985,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13137,10 +13014,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13166,10 +13043,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13195,10 +13072,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13224,10 +13101,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13253,10 +13130,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13282,10 +13159,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13311,10 +13188,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13340,10 +13217,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13369,10 +13246,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="G325" t="n">
         <v>4</v>
@@ -13398,10 +13275,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13427,10 +13304,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13456,10 +13333,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13485,10 +13362,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13514,10 +13391,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13543,10 +13420,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13572,10 +13449,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13601,10 +13478,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13630,10 +13507,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13659,10 +13536,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13688,10 +13565,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13717,10 +13594,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13746,10 +13623,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13775,10 +13652,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="F339" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13804,10 +13681,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13833,10 +13710,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13862,10 +13739,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="G342" t="n">
         <v>4</v>
@@ -13891,10 +13768,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13920,10 +13797,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13949,10 +13826,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13978,10 +13855,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="F346" t="s">
-        <v>664</v>
+        <v>447</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
@@ -14007,10 +13884,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="F347" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14036,10 +13913,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="F348" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14065,10 +13942,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F349" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14094,10 +13971,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="F350" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14123,10 +14000,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="F351" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14152,10 +14029,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="F352" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14181,10 +14058,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14210,10 +14087,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14239,10 +14116,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14268,10 +14145,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14297,10 +14174,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="F357" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14326,10 +14203,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="F358" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14355,10 +14232,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="F359" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14384,10 +14261,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="F360" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14413,10 +14290,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="F361" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14442,10 +14319,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="F362" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14471,10 +14348,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="F363" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14500,10 +14377,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="F364" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14529,10 +14406,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="F365" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14558,10 +14435,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="F366" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14587,10 +14464,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="F367" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14616,10 +14493,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="F368" t="s">
-        <v>706</v>
+        <v>23</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14645,10 +14522,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="F369" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="G369" t="n">
         <v>3</v>
@@ -14674,10 +14551,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="F370" t="s">
-        <v>710</v>
+        <v>27</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
@@ -14703,10 +14580,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="F371" t="s">
-        <v>712</v>
+        <v>33</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -14732,10 +14609,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>76</v>
+      </c>
+      <c r="F372" t="s">
         <v>77</v>
-      </c>
-      <c r="F372" t="s">
-        <v>78</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14761,10 +14638,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="F373" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14790,10 +14667,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="F374" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14819,10 +14696,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="F375" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14848,10 +14725,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
       <c r="F376" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14877,10 +14754,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="F377" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14906,10 +14783,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
       <c r="F378" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14935,10 +14812,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="F379" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14964,10 +14841,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="F380" t="s">
-        <v>728</v>
+        <v>310</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14993,10 +14870,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="F381" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="G381" t="n">
         <v>4</v>
@@ -15022,10 +14899,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="F382" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -15051,10 +14928,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="F383" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -15080,10 +14957,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="F384" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="G384" t="n">
         <v>3</v>
@@ -15109,10 +14986,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="F385" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="G385" t="n">
         <v>11</v>
@@ -15138,10 +15015,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="F386" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -15167,10 +15044,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="F387" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="G387" t="n">
         <v>5</v>
@@ -15196,10 +15073,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="F388" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -15225,10 +15102,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="F389" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -15254,10 +15131,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="F390" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="G390" t="n">
         <v>3</v>
@@ -15283,10 +15160,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="F391" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="G391" t="n">
         <v>5</v>
@@ -15312,10 +15189,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="F392" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -15341,10 +15218,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="F393" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="G393" t="n">
         <v>3</v>
@@ -15370,10 +15247,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="F394" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="G394" t="n">
         <v>4</v>
@@ -15399,10 +15276,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="F395" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="G395" t="n">
         <v>5</v>
@@ -15428,10 +15305,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="F396" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G396" t="n">
         <v>3</v>
@@ -15457,10 +15334,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="F397" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15486,10 +15363,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="F398" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="G398" t="n">
         <v>3</v>
@@ -15515,10 +15392,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="F399" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="G399" t="n">
         <v>5</v>
@@ -15544,10 +15421,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="F400" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="G400" t="n">
         <v>5</v>
@@ -15573,10 +15450,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="F401" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="G401" t="n">
         <v>4</v>
@@ -15602,10 +15479,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="F402" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15631,10 +15508,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="F403" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15660,10 +15537,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="F404" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="G404" t="n">
         <v>3</v>
@@ -15689,10 +15566,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15718,10 +15595,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="G406" t="n">
         <v>4</v>
@@ -15747,10 +15624,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15776,10 +15653,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="G408" t="n">
         <v>5</v>
@@ -15805,10 +15682,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="G409" t="n">
         <v>4</v>
@@ -15834,10 +15711,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="G410" t="n">
         <v>5</v>
@@ -15863,10 +15740,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="F411" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15892,10 +15769,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="F412" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="G412" t="n">
         <v>3</v>
@@ -15921,10 +15798,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="F413" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15950,10 +15827,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="F414" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="G414" t="n">
         <v>3</v>
@@ -15979,10 +15856,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="F415" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16008,10 +15885,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="F416" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="G416" t="n">
         <v>3</v>
@@ -16037,10 +15914,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="F417" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
@@ -16066,10 +15943,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="F418" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16095,10 +15972,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="F419" t="s">
-        <v>806</v>
+        <v>418</v>
       </c>
       <c r="G419" t="n">
         <v>6</v>
@@ -16124,10 +16001,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
       <c r="F420" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16153,10 +16030,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>809</v>
+        <v>780</v>
       </c>
       <c r="F421" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -16182,10 +16059,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>811</v>
+        <v>782</v>
       </c>
       <c r="F422" t="s">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -16211,10 +16088,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>813</v>
+        <v>784</v>
       </c>
       <c r="F423" t="s">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="G423" t="n">
         <v>3</v>
@@ -16240,10 +16117,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="F424" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="G424" t="n">
         <v>5</v>
@@ -16269,10 +16146,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>140</v>
+      </c>
+      <c r="F425" t="s">
         <v>141</v>
-      </c>
-      <c r="F425" t="s">
-        <v>142</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -16298,10 +16175,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="F426" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="G426" t="n">
         <v>6</v>
@@ -16327,10 +16204,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="F427" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="G427" t="n">
         <v>4</v>
@@ -16356,10 +16233,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
       <c r="F428" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="G428" t="n">
         <v>4</v>
@@ -16385,10 +16262,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
       <c r="F429" t="s">
-        <v>824</v>
+        <v>795</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16414,10 +16291,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>825</v>
+        <v>796</v>
       </c>
       <c r="F430" t="s">
-        <v>826</v>
+        <v>797</v>
       </c>
       <c r="G430" t="n">
         <v>3</v>
@@ -16443,10 +16320,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>827</v>
+        <v>798</v>
       </c>
       <c r="F431" t="s">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="G431" t="n">
         <v>3</v>
@@ -16472,10 +16349,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>829</v>
+        <v>800</v>
       </c>
       <c r="F432" t="s">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16501,10 +16378,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="F433" t="s">
-        <v>832</v>
+        <v>364</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16530,10 +16407,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="F434" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16559,10 +16436,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
       <c r="F435" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16588,10 +16465,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="F436" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16617,10 +16494,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>839</v>
+        <v>809</v>
       </c>
       <c r="F437" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16646,10 +16523,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="F438" t="s">
-        <v>842</v>
+        <v>812</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16675,10 +16552,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="F439" t="s">
-        <v>844</v>
+        <v>814</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16704,10 +16581,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="F440" t="s">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16733,10 +16610,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>847</v>
+        <v>817</v>
       </c>
       <c r="F441" t="s">
-        <v>848</v>
+        <v>818</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16762,10 +16639,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>849</v>
+        <v>819</v>
       </c>
       <c r="F442" t="s">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16791,10 +16668,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>851</v>
+        <v>821</v>
       </c>
       <c r="F443" t="s">
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16820,10 +16697,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>853</v>
+        <v>823</v>
       </c>
       <c r="F444" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16849,10 +16726,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="F445" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16878,10 +16755,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="F446" t="s">
-        <v>858</v>
+        <v>828</v>
       </c>
       <c r="G446" t="n">
         <v>3</v>
@@ -16907,10 +16784,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
       <c r="F447" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16936,10 +16813,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>861</v>
+        <v>831</v>
       </c>
       <c r="F448" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16965,10 +16842,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>158</v>
+      </c>
+      <c r="F449" t="s">
         <v>159</v>
-      </c>
-      <c r="F449" t="s">
-        <v>160</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16994,10 +16871,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>863</v>
+        <v>833</v>
       </c>
       <c r="F450" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -17023,10 +16900,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="F451" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -17052,10 +16929,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="F452" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17081,10 +16958,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="F453" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17110,13 +16987,13 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="F454" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="G454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -17139,10 +17016,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
       <c r="F455" t="s">
-        <v>872</v>
+        <v>842</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17168,10 +17045,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
       <c r="F456" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17197,13 +17074,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>875</v>
+        <v>845</v>
       </c>
       <c r="F457" t="s">
-        <v>876</v>
+        <v>846</v>
       </c>
       <c r="G457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -17226,10 +17103,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="F458" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="G458" t="n">
         <v>2</v>
@@ -17255,10 +17132,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>877</v>
+        <v>847</v>
       </c>
       <c r="F459" t="s">
-        <v>878</v>
+        <v>848</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -17284,10 +17161,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="F460" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17313,10 +17190,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="F461" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -17342,10 +17219,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="F462" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="G462" t="n">
         <v>2</v>
@@ -17371,10 +17248,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="F463" t="s">
-        <v>884</v>
+        <v>854</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17400,10 +17277,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>154</v>
+      </c>
+      <c r="F464" t="s">
         <v>155</v>
-      </c>
-      <c r="F464" t="s">
-        <v>156</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17429,13 +17306,13 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>885</v>
+        <v>855</v>
       </c>
       <c r="F465" t="s">
-        <v>886</v>
+        <v>856</v>
       </c>
       <c r="G465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -17458,10 +17335,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>887</v>
+        <v>857</v>
       </c>
       <c r="F466" t="s">
-        <v>888</v>
+        <v>858</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -17487,10 +17364,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>889</v>
+        <v>859</v>
       </c>
       <c r="F467" t="s">
-        <v>890</v>
+        <v>860</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17516,10 +17393,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>891</v>
+        <v>861</v>
       </c>
       <c r="F468" t="s">
-        <v>892</v>
+        <v>862</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17545,10 +17422,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>893</v>
+        <v>863</v>
       </c>
       <c r="F469" t="s">
-        <v>894</v>
+        <v>864</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17574,10 +17451,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>895</v>
+        <v>865</v>
       </c>
       <c r="F470" t="s">
-        <v>896</v>
+        <v>866</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17603,10 +17480,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>897</v>
+        <v>867</v>
       </c>
       <c r="F471" t="s">
-        <v>898</v>
+        <v>868</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17632,13 +17509,13 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
       <c r="F472" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17661,10 +17538,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="F473" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -17690,10 +17567,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>901</v>
+        <v>871</v>
       </c>
       <c r="F474" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17719,10 +17596,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>903</v>
+        <v>873</v>
       </c>
       <c r="F475" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17748,10 +17625,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>903</v>
+        <v>873</v>
       </c>
       <c r="F476" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="G476" t="n">
         <v>2</v>
@@ -17777,10 +17654,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>905</v>
+        <v>875</v>
       </c>
       <c r="F477" t="s">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17806,10 +17683,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>907</v>
+        <v>877</v>
       </c>
       <c r="F478" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="G478" t="n">
         <v>2</v>
@@ -17835,10 +17712,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="F479" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17864,10 +17741,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>911</v>
+        <v>881</v>
       </c>
       <c r="F480" t="s">
-        <v>912</v>
+        <v>882</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17893,10 +17770,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>913</v>
+        <v>883</v>
       </c>
       <c r="F481" t="s">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="G481" t="n">
         <v>2</v>
@@ -17922,10 +17799,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>915</v>
+        <v>885</v>
       </c>
       <c r="F482" t="s">
-        <v>916</v>
+        <v>390</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17951,10 +17828,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
       <c r="F483" t="s">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17980,10 +17857,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>919</v>
+        <v>888</v>
       </c>
       <c r="F484" t="s">
-        <v>920</v>
+        <v>889</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18009,10 +17886,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="F485" t="s">
-        <v>832</v>
+        <v>364</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -18038,10 +17915,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="F486" t="s">
-        <v>832</v>
+        <v>364</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18067,10 +17944,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>903</v>
+        <v>873</v>
       </c>
       <c r="F487" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18096,10 +17973,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>903</v>
+        <v>873</v>
       </c>
       <c r="F488" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18125,10 +18002,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>921</v>
+        <v>890</v>
       </c>
       <c r="F489" t="s">
-        <v>922</v>
+        <v>891</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18154,10 +18031,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>907</v>
+        <v>877</v>
       </c>
       <c r="F490" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18183,10 +18060,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="F491" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18212,10 +18089,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>923</v>
+        <v>892</v>
       </c>
       <c r="F492" t="s">
-        <v>924</v>
+        <v>893</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18241,10 +18118,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>911</v>
+        <v>881</v>
       </c>
       <c r="F493" t="s">
-        <v>912</v>
+        <v>882</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18270,10 +18147,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>913</v>
+        <v>883</v>
       </c>
       <c r="F494" t="s">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18299,10 +18176,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="F495" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18328,10 +18205,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="F496" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18357,10 +18234,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="F497" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18386,10 +18263,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="F498" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18415,10 +18292,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="F499" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18444,10 +18321,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="F500" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18473,10 +18350,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>863</v>
+        <v>833</v>
       </c>
       <c r="F501" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18502,10 +18379,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>925</v>
+        <v>894</v>
       </c>
       <c r="F502" t="s">
-        <v>926</v>
+        <v>895</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18531,10 +18408,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>887</v>
+        <v>857</v>
       </c>
       <c r="F503" t="s">
-        <v>888</v>
+        <v>858</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18560,10 +18437,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>889</v>
+        <v>859</v>
       </c>
       <c r="F504" t="s">
-        <v>890</v>
+        <v>860</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18589,10 +18466,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>891</v>
+        <v>861</v>
       </c>
       <c r="F505" t="s">
-        <v>892</v>
+        <v>862</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18618,10 +18495,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>927</v>
+        <v>896</v>
       </c>
       <c r="F506" t="s">
-        <v>928</v>
+        <v>897</v>
       </c>
       <c r="G506" t="n">
         <v>5</v>
@@ -18647,10 +18524,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="F507" t="s">
-        <v>930</v>
+        <v>720</v>
       </c>
       <c r="G507" t="n">
         <v>2</v>
@@ -18676,10 +18553,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>931</v>
+        <v>899</v>
       </c>
       <c r="F508" t="s">
-        <v>932</v>
+        <v>779</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -18705,10 +18582,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="F509" t="s">
-        <v>934</v>
+        <v>726</v>
       </c>
       <c r="G509" t="n">
         <v>3</v>
@@ -18734,10 +18611,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="F510" t="s">
-        <v>936</v>
+        <v>736</v>
       </c>
       <c r="G510" t="n">
         <v>2</v>
@@ -18763,10 +18640,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>937</v>
+        <v>902</v>
       </c>
       <c r="F511" t="s">
-        <v>938</v>
+        <v>789</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18792,10 +18669,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="F512" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="G512" t="n">
         <v>5</v>
@@ -18821,10 +18698,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>939</v>
+        <v>903</v>
       </c>
       <c r="F513" t="s">
-        <v>940</v>
+        <v>904</v>
       </c>
       <c r="G513" t="n">
         <v>3</v>
@@ -18850,10 +18727,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>941</v>
+        <v>905</v>
       </c>
       <c r="F514" t="s">
-        <v>942</v>
+        <v>416</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -18879,10 +18756,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="F515" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="G515" t="n">
         <v>3</v>
@@ -18908,10 +18785,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="F516" t="s">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18937,10 +18814,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
       <c r="F517" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18966,10 +18843,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="F518" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -18995,10 +18872,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="F519" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="G519" t="n">
         <v>2</v>
@@ -19024,10 +18901,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="F520" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="G520" t="n">
         <v>4</v>
@@ -19053,10 +18930,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="F521" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="G521" t="n">
         <v>2</v>
@@ -19082,10 +18959,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>907</v>
+        <v>877</v>
       </c>
       <c r="F522" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -19111,10 +18988,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
       <c r="F523" t="s">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19140,10 +19017,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="F524" t="s">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19169,10 +19046,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="F525" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -19198,10 +19075,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>953</v>
+        <v>916</v>
       </c>
       <c r="F526" t="s">
-        <v>954</v>
+        <v>917</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19227,10 +19104,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>955</v>
+        <v>918</v>
       </c>
       <c r="F527" t="s">
-        <v>956</v>
+        <v>919</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19256,10 +19133,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>957</v>
+        <v>920</v>
       </c>
       <c r="F528" t="s">
-        <v>958</v>
+        <v>921</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19285,10 +19162,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>959</v>
+        <v>922</v>
       </c>
       <c r="F529" t="s">
-        <v>960</v>
+        <v>923</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19314,10 +19191,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>961</v>
+        <v>924</v>
       </c>
       <c r="F530" t="s">
-        <v>962</v>
+        <v>925</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19343,10 +19220,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>963</v>
+        <v>926</v>
       </c>
       <c r="F531" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19372,10 +19249,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>965</v>
+        <v>928</v>
       </c>
       <c r="F532" t="s">
-        <v>966</v>
+        <v>929</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19401,10 +19278,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="F533" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19430,10 +19307,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="F534" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19459,10 +19336,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
       <c r="F535" t="s">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="G535" t="n">
         <v>2</v>
@@ -19488,10 +19365,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>973</v>
+        <v>936</v>
       </c>
       <c r="F536" t="s">
-        <v>974</v>
+        <v>937</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19517,10 +19394,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>975</v>
+        <v>938</v>
       </c>
       <c r="F537" t="s">
-        <v>976</v>
+        <v>939</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19546,10 +19423,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>977</v>
+        <v>940</v>
       </c>
       <c r="F538" t="s">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19575,10 +19452,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>979</v>
+        <v>942</v>
       </c>
       <c r="F539" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19604,10 +19481,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>981</v>
+        <v>944</v>
       </c>
       <c r="F540" t="s">
-        <v>982</v>
+        <v>945</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19633,10 +19510,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>983</v>
+        <v>946</v>
       </c>
       <c r="F541" t="s">
-        <v>984</v>
+        <v>947</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19662,10 +19539,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>985</v>
+        <v>948</v>
       </c>
       <c r="F542" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19691,10 +19568,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="F543" t="s">
-        <v>988</v>
+        <v>951</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19720,10 +19597,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>989</v>
+        <v>952</v>
       </c>
       <c r="F544" t="s">
-        <v>990</v>
+        <v>953</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19749,10 +19626,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>991</v>
+        <v>954</v>
       </c>
       <c r="F545" t="s">
-        <v>992</v>
+        <v>466</v>
       </c>
       <c r="G545" t="n">
         <v>250</v>
@@ -19778,10 +19655,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
       <c r="F546" t="s">
-        <v>994</v>
+        <v>956</v>
       </c>
       <c r="G546" t="n">
         <v>8</v>
@@ -19807,10 +19684,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>995</v>
+        <v>957</v>
       </c>
       <c r="F547" t="s">
-        <v>996</v>
+        <v>958</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19836,10 +19713,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>997</v>
+        <v>959</v>
       </c>
       <c r="F548" t="s">
-        <v>998</v>
+        <v>960</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19865,10 +19742,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>999</v>
+        <v>961</v>
       </c>
       <c r="F549" t="s">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19894,10 +19771,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="F550" t="s">
-        <v>1002</v>
+        <v>964</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19923,10 +19800,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1003</v>
+        <v>965</v>
       </c>
       <c r="F551" t="s">
-        <v>1004</v>
+        <v>966</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19952,10 +19829,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1005</v>
+        <v>967</v>
       </c>
       <c r="F552" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19981,10 +19858,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1007</v>
+        <v>969</v>
       </c>
       <c r="F553" t="s">
-        <v>1008</v>
+        <v>970</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20010,10 +19887,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1009</v>
+        <v>971</v>
       </c>
       <c r="F554" t="s">
-        <v>1010</v>
+        <v>972</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20039,10 +19916,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1011</v>
+        <v>973</v>
       </c>
       <c r="F555" t="s">
-        <v>1012</v>
+        <v>974</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20068,10 +19945,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1013</v>
+        <v>975</v>
       </c>
       <c r="F556" t="s">
-        <v>1014</v>
+        <v>16</v>
       </c>
       <c r="G556" t="n">
         <v>7</v>
@@ -20097,10 +19974,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1015</v>
+        <v>976</v>
       </c>
       <c r="F557" t="s">
-        <v>1016</v>
+        <v>977</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20126,10 +20003,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1017</v>
+        <v>978</v>
       </c>
       <c r="F558" t="s">
-        <v>1018</v>
+        <v>979</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20155,10 +20032,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1019</v>
+        <v>980</v>
       </c>
       <c r="F559" t="s">
-        <v>1020</v>
+        <v>981</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20184,10 +20061,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1021</v>
+        <v>982</v>
       </c>
       <c r="F560" t="s">
-        <v>1022</v>
+        <v>983</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20213,10 +20090,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1023</v>
+        <v>984</v>
       </c>
       <c r="F561" t="s">
-        <v>1024</v>
+        <v>985</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20242,10 +20119,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1025</v>
+        <v>986</v>
       </c>
       <c r="F562" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20271,10 +20148,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1027</v>
+        <v>988</v>
       </c>
       <c r="F563" t="s">
-        <v>1028</v>
+        <v>989</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20300,10 +20177,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1029</v>
+        <v>990</v>
       </c>
       <c r="F564" t="s">
-        <v>1030</v>
+        <v>991</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20329,10 +20206,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1031</v>
+        <v>992</v>
       </c>
       <c r="F565" t="s">
-        <v>1032</v>
+        <v>993</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20358,10 +20235,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1033</v>
+        <v>994</v>
       </c>
       <c r="F566" t="s">
-        <v>1034</v>
+        <v>995</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20387,10 +20264,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1035</v>
+        <v>996</v>
       </c>
       <c r="F567" t="s">
-        <v>1036</v>
+        <v>997</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20416,10 +20293,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1037</v>
+        <v>998</v>
       </c>
       <c r="F568" t="s">
-        <v>1038</v>
+        <v>999</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20445,10 +20322,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1039</v>
+        <v>1000</v>
       </c>
       <c r="F569" t="s">
-        <v>1040</v>
+        <v>1001</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20474,10 +20351,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1041</v>
+        <v>1002</v>
       </c>
       <c r="F570" t="s">
-        <v>1042</v>
+        <v>1003</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20503,10 +20380,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1043</v>
+        <v>1004</v>
       </c>
       <c r="F571" t="s">
-        <v>1044</v>
+        <v>1005</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20532,10 +20409,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1045</v>
+        <v>1006</v>
       </c>
       <c r="F572" t="s">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20561,10 +20438,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="F573" t="s">
-        <v>1048</v>
+        <v>1009</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20590,10 +20467,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1049</v>
+        <v>1010</v>
       </c>
       <c r="F574" t="s">
-        <v>1050</v>
+        <v>1011</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20619,10 +20496,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1051</v>
+        <v>1012</v>
       </c>
       <c r="F575" t="s">
-        <v>1052</v>
+        <v>1013</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20648,10 +20525,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1053</v>
+        <v>1014</v>
       </c>
       <c r="F576" t="s">
-        <v>1054</v>
+        <v>1015</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20677,10 +20554,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1055</v>
+        <v>1016</v>
       </c>
       <c r="F577" t="s">
-        <v>1056</v>
+        <v>1017</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20706,10 +20583,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1057</v>
+        <v>1018</v>
       </c>
       <c r="F578" t="s">
-        <v>1058</v>
+        <v>1019</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20735,10 +20612,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1059</v>
+        <v>1020</v>
       </c>
       <c r="F579" t="s">
-        <v>1060</v>
+        <v>1021</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20764,10 +20641,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1061</v>
+        <v>1022</v>
       </c>
       <c r="F580" t="s">
-        <v>1062</v>
+        <v>1023</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20793,10 +20670,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1063</v>
+        <v>1024</v>
       </c>
       <c r="F581" t="s">
-        <v>1064</v>
+        <v>1025</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20822,10 +20699,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1065</v>
+        <v>1026</v>
       </c>
       <c r="F582" t="s">
-        <v>1066</v>
+        <v>1027</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20851,10 +20728,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1067</v>
+        <v>1028</v>
       </c>
       <c r="F583" t="s">
-        <v>1068</v>
+        <v>1029</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20880,10 +20757,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1069</v>
+        <v>1030</v>
       </c>
       <c r="F584" t="s">
-        <v>1070</v>
+        <v>1031</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20909,10 +20786,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1071</v>
+        <v>1032</v>
       </c>
       <c r="F585" t="s">
-        <v>1072</v>
+        <v>1033</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20938,10 +20815,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1073</v>
+        <v>1034</v>
       </c>
       <c r="F586" t="s">
-        <v>1074</v>
+        <v>29</v>
       </c>
       <c r="G586" t="n">
         <v>2</v>
@@ -20967,10 +20844,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1075</v>
+        <v>1035</v>
       </c>
       <c r="F587" t="s">
-        <v>1076</v>
+        <v>1036</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20996,10 +20873,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1077</v>
+        <v>1037</v>
       </c>
       <c r="F588" t="s">
-        <v>1078</v>
+        <v>1038</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21025,10 +20902,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="F589" t="s">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21054,10 +20931,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1081</v>
+        <v>1041</v>
       </c>
       <c r="F590" t="s">
-        <v>1082</v>
+        <v>1042</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21083,10 +20960,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1083</v>
+        <v>1043</v>
       </c>
       <c r="F591" t="s">
-        <v>1084</v>
+        <v>1044</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21112,10 +20989,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1085</v>
+        <v>1045</v>
       </c>
       <c r="F592" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="G592" t="n">
         <v>2</v>
@@ -21141,10 +21018,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1087</v>
+        <v>1047</v>
       </c>
       <c r="F593" t="s">
-        <v>1088</v>
+        <v>1048</v>
       </c>
       <c r="G593" t="n">
         <v>2</v>
@@ -21170,10 +21047,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1089</v>
+        <v>1049</v>
       </c>
       <c r="F594" t="s">
-        <v>1090</v>
+        <v>1050</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21199,10 +21076,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1091</v>
+        <v>1051</v>
       </c>
       <c r="F595" t="s">
-        <v>1092</v>
+        <v>1052</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21228,10 +21105,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1093</v>
+        <v>1053</v>
       </c>
       <c r="F596" t="s">
-        <v>1094</v>
+        <v>1054</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21257,10 +21134,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1095</v>
+        <v>1055</v>
       </c>
       <c r="F597" t="s">
-        <v>1096</v>
+        <v>1056</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21286,10 +21163,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1097</v>
+        <v>1057</v>
       </c>
       <c r="F598" t="s">
-        <v>1098</v>
+        <v>1058</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21315,10 +21192,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="F599" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21344,10 +21221,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1099</v>
+        <v>1059</v>
       </c>
       <c r="F600" t="s">
-        <v>1100</v>
+        <v>1060</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21373,10 +21250,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1101</v>
+        <v>1061</v>
       </c>
       <c r="F601" t="s">
-        <v>1102</v>
+        <v>1062</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21402,10 +21279,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1103</v>
+        <v>1063</v>
       </c>
       <c r="F602" t="s">
-        <v>1104</v>
+        <v>1064</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21431,10 +21308,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1105</v>
+        <v>1065</v>
       </c>
       <c r="F603" t="s">
-        <v>1106</v>
+        <v>1066</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21460,10 +21337,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="F604" t="s">
-        <v>1108</v>
+        <v>1068</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21489,10 +21366,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1109</v>
+        <v>1069</v>
       </c>
       <c r="F605" t="s">
-        <v>1110</v>
+        <v>1070</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21518,10 +21395,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1111</v>
+        <v>1071</v>
       </c>
       <c r="F606" t="s">
-        <v>1112</v>
+        <v>1072</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21547,10 +21424,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1113</v>
+        <v>1073</v>
       </c>
       <c r="F607" t="s">
-        <v>1114</v>
+        <v>1074</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21576,10 +21453,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1115</v>
+        <v>1075</v>
       </c>
       <c r="F608" t="s">
-        <v>1116</v>
+        <v>1076</v>
       </c>
       <c r="G608" t="n">
         <v>4</v>
@@ -21605,10 +21482,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1117</v>
+        <v>1077</v>
       </c>
       <c r="F609" t="s">
-        <v>1118</v>
+        <v>1078</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21634,10 +21511,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1119</v>
+        <v>1079</v>
       </c>
       <c r="F610" t="s">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21663,10 +21540,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1121</v>
+        <v>1081</v>
       </c>
       <c r="F611" t="s">
-        <v>1122</v>
+        <v>1082</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21692,10 +21569,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1123</v>
+        <v>1083</v>
       </c>
       <c r="F612" t="s">
-        <v>1124</v>
+        <v>797</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21721,10 +21598,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1123</v>
+        <v>1083</v>
       </c>
       <c r="F613" t="s">
-        <v>1124</v>
+        <v>797</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21750,10 +21627,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1125</v>
+        <v>1084</v>
       </c>
       <c r="F614" t="s">
-        <v>1126</v>
+        <v>1085</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21779,10 +21656,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>863</v>
+        <v>833</v>
       </c>
       <c r="F615" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="G615" t="n">
         <v>2</v>
@@ -21808,10 +21685,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1127</v>
+        <v>1086</v>
       </c>
       <c r="F616" t="s">
-        <v>1128</v>
+        <v>1087</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21837,10 +21714,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1129</v>
+        <v>1088</v>
       </c>
       <c r="F617" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21866,10 +21743,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1131</v>
+        <v>1090</v>
       </c>
       <c r="F618" t="s">
-        <v>1132</v>
+        <v>1091</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21895,10 +21772,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1133</v>
+        <v>1092</v>
       </c>
       <c r="F619" t="s">
-        <v>1134</v>
+        <v>1093</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21924,10 +21801,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1135</v>
+        <v>1094</v>
       </c>
       <c r="F620" t="s">
-        <v>1136</v>
+        <v>1095</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21953,10 +21830,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="F621" t="s">
-        <v>1138</v>
+        <v>1097</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21982,10 +21859,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1139</v>
+        <v>1098</v>
       </c>
       <c r="F622" t="s">
-        <v>1140</v>
+        <v>1099</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22011,10 +21888,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1141</v>
+        <v>1100</v>
       </c>
       <c r="F623" t="s">
-        <v>1142</v>
+        <v>1101</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22040,10 +21917,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1143</v>
+        <v>1102</v>
       </c>
       <c r="F624" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22069,10 +21946,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1145</v>
+        <v>1104</v>
       </c>
       <c r="F625" t="s">
-        <v>1146</v>
+        <v>1105</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22098,10 +21975,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1147</v>
+        <v>1106</v>
       </c>
       <c r="F626" t="s">
-        <v>1148</v>
+        <v>1107</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22127,10 +22004,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1149</v>
+        <v>1108</v>
       </c>
       <c r="F627" t="s">
-        <v>1150</v>
+        <v>1109</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22156,10 +22033,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1151</v>
+        <v>1110</v>
       </c>
       <c r="F628" t="s">
-        <v>1152</v>
+        <v>1111</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22185,10 +22062,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1153</v>
+        <v>1112</v>
       </c>
       <c r="F629" t="s">
-        <v>1154</v>
+        <v>1113</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22214,10 +22091,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1155</v>
+        <v>1114</v>
       </c>
       <c r="F630" t="s">
-        <v>1156</v>
+        <v>1115</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22243,10 +22120,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1157</v>
+        <v>1116</v>
       </c>
       <c r="F631" t="s">
-        <v>1158</v>
+        <v>1117</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22272,10 +22149,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1159</v>
+        <v>1118</v>
       </c>
       <c r="F632" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22301,10 +22178,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1161</v>
+        <v>1120</v>
       </c>
       <c r="F633" t="s">
-        <v>1162</v>
+        <v>1121</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22330,10 +22207,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1163</v>
+        <v>1122</v>
       </c>
       <c r="F634" t="s">
-        <v>1164</v>
+        <v>1123</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22359,10 +22236,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1165</v>
+        <v>1124</v>
       </c>
       <c r="F635" t="s">
-        <v>1166</v>
+        <v>1125</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22388,10 +22265,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1167</v>
+        <v>1126</v>
       </c>
       <c r="F636" t="s">
-        <v>1168</v>
+        <v>1127</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22417,10 +22294,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1169</v>
+        <v>1128</v>
       </c>
       <c r="F637" t="s">
-        <v>1170</v>
+        <v>1129</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22446,10 +22323,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="F638" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="G638" t="n">
         <v>3</v>
@@ -22475,10 +22352,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1171</v>
+        <v>1130</v>
       </c>
       <c r="F639" t="s">
-        <v>1172</v>
+        <v>1131</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22504,10 +22381,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1173</v>
+        <v>1132</v>
       </c>
       <c r="F640" t="s">
-        <v>1174</v>
+        <v>1133</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22533,10 +22410,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1175</v>
+        <v>1134</v>
       </c>
       <c r="F641" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22562,10 +22439,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1177</v>
+        <v>1136</v>
       </c>
       <c r="F642" t="s">
-        <v>1178</v>
+        <v>1137</v>
       </c>
       <c r="G642" t="n">
         <v>3</v>
@@ -22591,10 +22468,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="F643" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22620,10 +22497,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1181</v>
+        <v>1140</v>
       </c>
       <c r="F644" t="s">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22649,10 +22526,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1183</v>
+        <v>1142</v>
       </c>
       <c r="F645" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22678,10 +22555,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1185</v>
+        <v>1144</v>
       </c>
       <c r="F646" t="s">
-        <v>1186</v>
+        <v>1145</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22707,10 +22584,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1187</v>
+        <v>1146</v>
       </c>
       <c r="F647" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22736,10 +22613,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1189</v>
+        <v>1148</v>
       </c>
       <c r="F648" t="s">
-        <v>1190</v>
+        <v>1149</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22765,10 +22642,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1191</v>
+        <v>1150</v>
       </c>
       <c r="F649" t="s">
-        <v>1192</v>
+        <v>1151</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22794,10 +22671,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1193</v>
+        <v>1152</v>
       </c>
       <c r="F650" t="s">
-        <v>1194</v>
+        <v>1153</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22823,10 +22700,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1195</v>
+        <v>1154</v>
       </c>
       <c r="F651" t="s">
-        <v>1196</v>
+        <v>1155</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>

--- a/xlsx/西班牙_intext.xlsx
+++ b/xlsx/西班牙_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1211">
   <si>
     <t>西班牙</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_西班牙</t>
+    <t>体育运动_体育运动_明成祖_西班牙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E6%97%97</t>
@@ -2246,1072 +2246,1114 @@
     <t>摩纳哥</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>利古里亞海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>科西嘉岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E4%B8%81%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>撒丁岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>第勒尼安海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西西里岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚得里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>黑山共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱奥尼亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱琴海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>达达尼尔海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尔马拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%B2%81%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>博斯普鲁斯海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>基克拉泽斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>克里特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>北賽普勒斯土耳其共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞克羅提利與德凱利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>约旦河西岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>加沙地带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西奈半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿尔沃兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>巴勒斯坦國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>海域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>欧洲联盟成员国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利時</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>丹麥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>希臘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
+  </si>
+  <si>
+    <t>波蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>地中海聯盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>北大西洋公约组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>北大西洋公约</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_summit</t>
+  </si>
+  <si>
+    <t>en-NATO summit</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_Operations</t>
+  </si>
+  <si>
+    <t>en-NATO Operations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
+  </si>
+  <si>
+    <t>北約擴張</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
+  </si>
+  <si>
+    <t>en-North Atlantic Council</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
+  </si>
+  <si>
+    <t>欧洲盟军最高司令部</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Allied_Command_Transformation</t>
+  </si>
+  <si>
+    <t>en-Allied Command Transformation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_Parliamentary_Assembly</t>
+  </si>
+  <si>
+    <t>en-NATO Parliamentary Assembly</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>北約秘書長</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
+  </si>
+  <si>
+    <t>en-Chairman of the NATO Military Committee</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>欧洲盟军最高司令</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Supreme_Allied_Commander_Transformation</t>
+  </si>
+  <si>
+    <t>en-Supreme Allied Commander Transformation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>加拿大軍隊</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
+  </si>
+  <si>
+    <t>en-Army of the Czech Republic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
+  </si>
+  <si>
+    <t>en-Estonia Defence Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
+  </si>
+  <si>
+    <t>en-Military of Iceland</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Latvian_National_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Latvian National Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lithuanian_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Lithuanian Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovak_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Slovak Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovenian_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Slovenian Armed Forces</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%86%9B%E9%98%9F</t>
+  </si>
+  <si>
+    <t>西班牙军队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美军</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_of_Montenegro</t>
+  </si>
+  <si>
+    <t>en-Military of Montenegro</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_NATO</t>
+  </si>
+  <si>
+    <t>en-Foreign relations of NATO</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Atlantic_Treaty_Association</t>
+  </si>
+  <si>
+    <t>en-Atlantic Treaty Association</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Euro-Atlantic_Partnership_Council</t>
+  </si>
+  <si>
+    <t>en-Euro-Atlantic Partnership Council</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
+  </si>
+  <si>
+    <t>主要非北約盟友</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
+  </si>
+  <si>
+    <t>en-Mediterranean Dialogue</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Istanbul_Cooperation_Initiative</t>
+  </si>
+  <si>
+    <t>en-Istanbul Cooperation Initiative</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%BC%99%E4%BC%B4%E5%85%B3%E7%B3%BB%E8%AE%A1%E5%88%92</t>
+  </si>
+  <si>
+    <t>和平伙伴关系计划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>拉丁语联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>歐洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委內瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>烏拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>幾內亞比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>加泰羅尼亞語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>法語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>義大利語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>葡萄牙語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>利古里亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>科西嘉岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E4%B8%81%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>撒丁岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>第勒尼安海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西西里岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亚得里亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>黑山共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱奥尼亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱琴海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>达达尼尔海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尔马拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%B2%81%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>博斯普鲁斯海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>基克拉泽斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>克里特岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>北賽普勒斯土耳其共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞克羅提利與德凱利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>约旦河西岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>加沙地带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西奈半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿尔沃兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>海域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>欧洲联盟成员国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
-  </si>
-  <si>
-    <t>波蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>地中海聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>北大西洋公约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>北大西洋公约</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_summit</t>
-  </si>
-  <si>
-    <t>en-NATO summit</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_Operations</t>
-  </si>
-  <si>
-    <t>en-NATO Operations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
-  </si>
-  <si>
-    <t>北約擴張</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
-  </si>
-  <si>
-    <t>en-North Atlantic Council</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
-  </si>
-  <si>
-    <t>欧洲盟军最高司令部</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Allied_Command_Transformation</t>
-  </si>
-  <si>
-    <t>en-Allied Command Transformation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_Parliamentary_Assembly</t>
-  </si>
-  <si>
-    <t>en-NATO Parliamentary Assembly</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>北約秘書長</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
-  </si>
-  <si>
-    <t>en-Chairman of the NATO Military Committee</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>欧洲盟军最高司令</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Supreme_Allied_Commander_Transformation</t>
-  </si>
-  <si>
-    <t>en-Supreme Allied Commander Transformation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>加拿大軍隊</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
-  </si>
-  <si>
-    <t>en-Army of the Czech Republic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
-  </si>
-  <si>
-    <t>en-Estonia Defence Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
-  </si>
-  <si>
-    <t>en-Military of Iceland</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Latvian_National_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Latvian National Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lithuanian_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Lithuanian Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovak_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Slovak Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovenian_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Slovenian Armed Forces</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%86%9B%E9%98%9F</t>
-  </si>
-  <si>
-    <t>西班牙军队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美军</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_of_Montenegro</t>
-  </si>
-  <si>
-    <t>en-Military of Montenegro</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_NATO</t>
-  </si>
-  <si>
-    <t>en-Foreign relations of NATO</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Atlantic_Treaty_Association</t>
-  </si>
-  <si>
-    <t>en-Atlantic Treaty Association</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Euro-Atlantic_Partnership_Council</t>
-  </si>
-  <si>
-    <t>en-Euro-Atlantic Partnership Council</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
-  </si>
-  <si>
-    <t>主要非北約盟友</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
-  </si>
-  <si>
-    <t>en-Mediterranean Dialogue</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Istanbul_Cooperation_Initiative</t>
-  </si>
-  <si>
-    <t>en-Istanbul Cooperation Initiative</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%BC%99%E4%BC%B4%E5%85%B3%E7%B3%BB%E8%AE%A1%E5%88%92</t>
-  </si>
-  <si>
-    <t>和平伙伴关系计划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>拉丁语联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>義大利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -3954,7 +3996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I651"/>
+  <dimension ref="A1:I657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4182,7 +4224,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -6241,7 +6283,7 @@
         <v>156</v>
       </c>
       <c r="G79" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -15202,7 +15244,7 @@
         <v>744</v>
       </c>
       <c r="G388" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -15231,7 +15273,7 @@
         <v>746</v>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -15260,7 +15302,7 @@
         <v>748</v>
       </c>
       <c r="G390" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15289,7 +15331,7 @@
         <v>750</v>
       </c>
       <c r="G391" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -15318,7 +15360,7 @@
         <v>752</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -15347,7 +15389,7 @@
         <v>754</v>
       </c>
       <c r="G393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -15376,7 +15418,7 @@
         <v>756</v>
       </c>
       <c r="G394" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15434,7 +15476,7 @@
         <v>760</v>
       </c>
       <c r="G396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15463,7 +15505,7 @@
         <v>762</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15492,7 +15534,7 @@
         <v>764</v>
       </c>
       <c r="G398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -15550,7 +15592,7 @@
         <v>768</v>
       </c>
       <c r="G400" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -15579,7 +15621,7 @@
         <v>770</v>
       </c>
       <c r="G401" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15608,7 +15650,7 @@
         <v>772</v>
       </c>
       <c r="G402" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -15637,7 +15679,7 @@
         <v>774</v>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -15666,7 +15708,7 @@
         <v>776</v>
       </c>
       <c r="G404" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -15695,7 +15737,7 @@
         <v>778</v>
       </c>
       <c r="G405" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -15724,7 +15766,7 @@
         <v>780</v>
       </c>
       <c r="G406" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -15782,7 +15824,7 @@
         <v>784</v>
       </c>
       <c r="G408" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -15811,7 +15853,7 @@
         <v>786</v>
       </c>
       <c r="G409" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15869,7 +15911,7 @@
         <v>790</v>
       </c>
       <c r="G411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -15898,7 +15940,7 @@
         <v>792</v>
       </c>
       <c r="G412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -15927,7 +15969,7 @@
         <v>794</v>
       </c>
       <c r="G413" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15956,7 +15998,7 @@
         <v>796</v>
       </c>
       <c r="G414" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -15985,7 +16027,7 @@
         <v>798</v>
       </c>
       <c r="G415" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -16014,7 +16056,7 @@
         <v>800</v>
       </c>
       <c r="G416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -16101,7 +16143,7 @@
         <v>806</v>
       </c>
       <c r="G419" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -16159,7 +16201,7 @@
         <v>810</v>
       </c>
       <c r="G421" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -16188,7 +16230,7 @@
         <v>812</v>
       </c>
       <c r="G422" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -16217,7 +16259,7 @@
         <v>814</v>
       </c>
       <c r="G423" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -16246,7 +16288,7 @@
         <v>816</v>
       </c>
       <c r="G424" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16269,13 +16311,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>141</v>
+        <v>817</v>
       </c>
       <c r="F425" t="s">
-        <v>142</v>
+        <v>818</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16298,13 +16340,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F426" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G426" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16327,13 +16369,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F427" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G427" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16356,13 +16398,13 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F428" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G428" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -16385,13 +16427,13 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F429" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G429" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -16414,13 +16456,13 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>825</v>
+        <v>141</v>
       </c>
       <c r="F430" t="s">
-        <v>826</v>
+        <v>142</v>
       </c>
       <c r="G430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16449,7 +16491,7 @@
         <v>828</v>
       </c>
       <c r="G431" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16478,7 +16520,7 @@
         <v>830</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16507,7 +16549,7 @@
         <v>832</v>
       </c>
       <c r="G433" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -16536,7 +16578,7 @@
         <v>834</v>
       </c>
       <c r="G434" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -16594,7 +16636,7 @@
         <v>838</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16652,7 +16694,7 @@
         <v>842</v>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -16710,7 +16752,7 @@
         <v>846</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16855,7 +16897,7 @@
         <v>856</v>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -16884,7 +16926,7 @@
         <v>858</v>
       </c>
       <c r="G446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -16965,10 +17007,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>159</v>
+        <v>863</v>
       </c>
       <c r="F449" t="s">
-        <v>160</v>
+        <v>864</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16994,13 +17036,13 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F450" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -17023,13 +17065,13 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>741</v>
+        <v>867</v>
       </c>
       <c r="F451" t="s">
-        <v>742</v>
+        <v>868</v>
       </c>
       <c r="G451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -17052,13 +17094,13 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="F452" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -17081,10 +17123,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="F453" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17110,13 +17152,13 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="F454" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="G454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -17139,10 +17181,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>871</v>
+        <v>159</v>
       </c>
       <c r="F455" t="s">
-        <v>872</v>
+        <v>160</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17168,13 +17210,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F456" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -17197,13 +17239,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>875</v>
+        <v>741</v>
       </c>
       <c r="F457" t="s">
-        <v>876</v>
+        <v>742</v>
       </c>
       <c r="G457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -17226,13 +17268,13 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>803</v>
+        <v>877</v>
       </c>
       <c r="F458" t="s">
-        <v>804</v>
+        <v>878</v>
       </c>
       <c r="G458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -17255,13 +17297,13 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F459" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -17284,13 +17326,13 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>799</v>
+        <v>881</v>
       </c>
       <c r="F460" t="s">
-        <v>800</v>
+        <v>882</v>
       </c>
       <c r="G460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17313,13 +17355,13 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F461" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="G461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -17342,13 +17384,13 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="F462" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="G462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -17371,13 +17413,13 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="F463" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="G463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -17400,13 +17442,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>155</v>
+        <v>813</v>
       </c>
       <c r="F464" t="s">
-        <v>156</v>
+        <v>814</v>
       </c>
       <c r="G464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17429,13 +17471,13 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F465" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="G465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -17458,10 +17500,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>887</v>
+        <v>809</v>
       </c>
       <c r="F466" t="s">
-        <v>888</v>
+        <v>810</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -17487,10 +17529,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F467" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17516,10 +17558,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F468" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17545,10 +17587,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F469" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17574,10 +17616,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>895</v>
+        <v>155</v>
       </c>
       <c r="F470" t="s">
-        <v>896</v>
+        <v>156</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17609,7 +17651,7 @@
         <v>898</v>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17638,7 +17680,7 @@
         <v>900</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17661,10 +17703,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>819</v>
+        <v>901</v>
       </c>
       <c r="F473" t="s">
-        <v>820</v>
+        <v>902</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -17690,10 +17732,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F474" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17719,13 +17761,13 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F475" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -17748,13 +17790,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F476" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -17777,10 +17819,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="F477" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17806,13 +17848,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="F478" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="G478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -17835,10 +17877,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>909</v>
+        <v>829</v>
       </c>
       <c r="F479" t="s">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17864,10 +17906,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F480" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17893,10 +17935,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F481" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G481" t="n">
         <v>2</v>
@@ -17928,7 +17970,7 @@
         <v>916</v>
       </c>
       <c r="G482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -17986,7 +18028,7 @@
         <v>920</v>
       </c>
       <c r="G484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -18009,10 +18051,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>831</v>
+        <v>921</v>
       </c>
       <c r="F485" t="s">
-        <v>832</v>
+        <v>922</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -18038,13 +18080,13 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="F486" t="s">
-        <v>832</v>
+        <v>924</v>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -18067,13 +18109,13 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
       <c r="F487" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -18096,10 +18138,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="F488" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18125,10 +18167,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="F489" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18154,10 +18196,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="F490" t="s">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18183,13 +18225,13 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>909</v>
+        <v>841</v>
       </c>
       <c r="F491" t="s">
-        <v>910</v>
+        <v>842</v>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -18212,10 +18254,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>923</v>
+        <v>841</v>
       </c>
       <c r="F492" t="s">
-        <v>924</v>
+        <v>842</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18241,10 +18283,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F493" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18270,10 +18312,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F494" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18299,10 +18341,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>803</v>
+        <v>933</v>
       </c>
       <c r="F495" t="s">
-        <v>804</v>
+        <v>934</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18328,10 +18370,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>801</v>
+        <v>919</v>
       </c>
       <c r="F496" t="s">
-        <v>802</v>
+        <v>920</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18357,10 +18399,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>799</v>
+        <v>921</v>
       </c>
       <c r="F497" t="s">
-        <v>800</v>
+        <v>922</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18386,10 +18428,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>879</v>
+        <v>935</v>
       </c>
       <c r="F498" t="s">
-        <v>880</v>
+        <v>936</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18415,10 +18457,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>881</v>
+        <v>923</v>
       </c>
       <c r="F499" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18444,10 +18486,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>741</v>
+        <v>925</v>
       </c>
       <c r="F500" t="s">
-        <v>742</v>
+        <v>926</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18473,10 +18515,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="F501" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18502,10 +18544,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>925</v>
+        <v>811</v>
       </c>
       <c r="F502" t="s">
-        <v>926</v>
+        <v>812</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18531,10 +18573,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>887</v>
+        <v>809</v>
       </c>
       <c r="F503" t="s">
-        <v>888</v>
+        <v>810</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18560,10 +18602,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F504" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18589,10 +18631,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F505" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18618,13 +18660,13 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>927</v>
+        <v>741</v>
       </c>
       <c r="F506" t="s">
-        <v>928</v>
+        <v>742</v>
       </c>
       <c r="G506" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -18647,13 +18689,13 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>929</v>
+        <v>875</v>
       </c>
       <c r="F507" t="s">
-        <v>930</v>
+        <v>876</v>
       </c>
       <c r="G507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -18676,13 +18718,13 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="F508" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="G508" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18705,13 +18747,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
       <c r="F509" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="G509" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18734,13 +18776,13 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="F510" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -18763,13 +18805,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="F511" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
       <c r="G511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -18792,10 +18834,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>879</v>
+        <v>939</v>
       </c>
       <c r="F512" t="s">
-        <v>880</v>
+        <v>940</v>
       </c>
       <c r="G512" t="n">
         <v>5</v>
@@ -18821,13 +18863,13 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F513" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -18850,13 +18892,13 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F514" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G514" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -18879,10 +18921,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F515" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G515" t="n">
         <v>3</v>
@@ -18908,13 +18950,13 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F516" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -18937,13 +18979,13 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>899</v>
+        <v>949</v>
       </c>
       <c r="F517" t="s">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="G517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -18966,13 +19008,13 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="F518" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="G518" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -18995,13 +19037,13 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="F519" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="G519" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -19024,13 +19066,13 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>803</v>
+        <v>953</v>
       </c>
       <c r="F520" t="s">
-        <v>804</v>
+        <v>954</v>
       </c>
       <c r="G520" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -19053,13 +19095,13 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>801</v>
+        <v>955</v>
       </c>
       <c r="F521" t="s">
-        <v>802</v>
+        <v>956</v>
       </c>
       <c r="G521" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -19082,13 +19124,13 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>907</v>
+        <v>957</v>
       </c>
       <c r="F522" t="s">
-        <v>908</v>
+        <v>958</v>
       </c>
       <c r="G522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -19111,10 +19153,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F523" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19140,13 +19182,13 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>949</v>
+        <v>921</v>
       </c>
       <c r="F524" t="s">
-        <v>950</v>
+        <v>922</v>
       </c>
       <c r="G524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -19169,10 +19211,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F525" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -19198,13 +19240,13 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>953</v>
+        <v>813</v>
       </c>
       <c r="F526" t="s">
-        <v>954</v>
+        <v>814</v>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -19227,13 +19269,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>955</v>
+        <v>811</v>
       </c>
       <c r="F527" t="s">
-        <v>956</v>
+        <v>812</v>
       </c>
       <c r="G527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -19256,13 +19298,13 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>957</v>
+        <v>919</v>
       </c>
       <c r="F528" t="s">
-        <v>958</v>
+        <v>920</v>
       </c>
       <c r="G528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -19285,10 +19327,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>959</v>
+        <v>929</v>
       </c>
       <c r="F529" t="s">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19349,7 +19391,7 @@
         <v>964</v>
       </c>
       <c r="G531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H531" t="s">
         <v>4</v>
@@ -19465,7 +19507,7 @@
         <v>972</v>
       </c>
       <c r="G535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -19639,7 +19681,7 @@
         <v>984</v>
       </c>
       <c r="G541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -19755,7 +19797,7 @@
         <v>992</v>
       </c>
       <c r="G545" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -19784,7 +19826,7 @@
         <v>994</v>
       </c>
       <c r="G546" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -19929,7 +19971,7 @@
         <v>1004</v>
       </c>
       <c r="G551" t="n">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -19958,7 +20000,7 @@
         <v>1006</v>
       </c>
       <c r="G552" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -20074,7 +20116,7 @@
         <v>1014</v>
       </c>
       <c r="G556" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -20248,7 +20290,7 @@
         <v>1026</v>
       </c>
       <c r="G562" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H562" t="s">
         <v>4</v>
@@ -20944,7 +20986,7 @@
         <v>1074</v>
       </c>
       <c r="G586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H586" t="s">
         <v>4</v>
@@ -21147,7 +21189,7 @@
         <v>1088</v>
       </c>
       <c r="G593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H593" t="s">
         <v>4</v>
@@ -21292,7 +21334,7 @@
         <v>1098</v>
       </c>
       <c r="G598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H598" t="s">
         <v>4</v>
@@ -21315,13 +21357,13 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>743</v>
+        <v>1099</v>
       </c>
       <c r="F599" t="s">
-        <v>744</v>
+        <v>1100</v>
       </c>
       <c r="G599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H599" t="s">
         <v>4</v>
@@ -21344,10 +21386,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F600" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21373,10 +21415,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F601" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21402,10 +21444,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F602" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21431,10 +21473,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F603" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21460,10 +21502,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F604" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21489,10 +21531,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F605" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21518,10 +21560,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F606" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21547,10 +21589,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F607" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21576,13 +21618,13 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F608" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G608" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -21605,10 +21647,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F609" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21634,10 +21676,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F610" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21663,10 +21705,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F611" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21692,10 +21734,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F612" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21721,10 +21763,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="F613" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21750,13 +21792,13 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="F614" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="G614" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -21779,13 +21821,13 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>863</v>
+        <v>1131</v>
       </c>
       <c r="F615" t="s">
-        <v>864</v>
+        <v>1132</v>
       </c>
       <c r="G615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H615" t="s">
         <v>4</v>
@@ -21808,10 +21850,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="F616" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21837,10 +21879,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="F617" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21866,10 +21908,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="F618" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21895,10 +21937,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="F619" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21924,10 +21966,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="F620" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21953,13 +21995,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1137</v>
+        <v>875</v>
       </c>
       <c r="F621" t="s">
-        <v>1138</v>
+        <v>876</v>
       </c>
       <c r="G621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -21982,10 +22024,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F622" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22011,10 +22053,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F623" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22040,10 +22082,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="F624" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22069,10 +22111,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F625" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22098,10 +22140,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F626" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22127,10 +22169,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F627" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22156,10 +22198,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="F628" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22185,10 +22227,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F629" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22214,10 +22256,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F630" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22243,10 +22285,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="F631" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22272,10 +22314,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F632" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22301,10 +22343,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F633" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22330,10 +22372,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F634" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22359,10 +22401,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F635" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22388,10 +22430,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F636" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22417,10 +22459,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F637" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22446,13 +22488,13 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>881</v>
+        <v>1173</v>
       </c>
       <c r="F638" t="s">
-        <v>882</v>
+        <v>1174</v>
       </c>
       <c r="G638" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H638" t="s">
         <v>4</v>
@@ -22475,10 +22517,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="F639" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22504,10 +22546,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="F640" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22533,10 +22575,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="F641" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22562,13 +22604,13 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="F642" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="G642" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -22591,10 +22633,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="F643" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22620,13 +22662,13 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1181</v>
+        <v>893</v>
       </c>
       <c r="F644" t="s">
-        <v>1182</v>
+        <v>894</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -22649,10 +22691,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F645" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22678,10 +22720,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="F646" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22707,10 +22749,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F647" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22736,13 +22778,13 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F648" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="G648" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H648" t="s">
         <v>4</v>
@@ -22765,10 +22807,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F649" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22794,10 +22836,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F650" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22823,10 +22865,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F651" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -22835,6 +22877,180 @@
         <v>4</v>
       </c>
       <c r="I651" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="s">
+        <v>0</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1</v>
+      </c>
+      <c r="D652" t="n">
+        <v>651</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F652" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1</v>
+      </c>
+      <c r="H652" t="s">
+        <v>4</v>
+      </c>
+      <c r="I652" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="s">
+        <v>0</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1</v>
+      </c>
+      <c r="D653" t="n">
+        <v>652</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F653" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1</v>
+      </c>
+      <c r="H653" t="s">
+        <v>4</v>
+      </c>
+      <c r="I653" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="s">
+        <v>0</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1</v>
+      </c>
+      <c r="D654" t="n">
+        <v>653</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F654" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1</v>
+      </c>
+      <c r="H654" t="s">
+        <v>4</v>
+      </c>
+      <c r="I654" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="s">
+        <v>0</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1</v>
+      </c>
+      <c r="D655" t="n">
+        <v>654</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1</v>
+      </c>
+      <c r="H655" t="s">
+        <v>4</v>
+      </c>
+      <c r="I655" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="s">
+        <v>0</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1</v>
+      </c>
+      <c r="D656" t="n">
+        <v>655</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F656" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1</v>
+      </c>
+      <c r="H656" t="s">
+        <v>4</v>
+      </c>
+      <c r="I656" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="s">
+        <v>0</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1</v>
+      </c>
+      <c r="D657" t="n">
+        <v>656</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1</v>
+      </c>
+      <c r="H657" t="s">
+        <v>4</v>
+      </c>
+      <c r="I657" t="n">
         <v>3</v>
       </c>
     </row>
